--- a/Output/productivity_agent_April.xlsx
+++ b/Output/productivity_agent_April.xlsx
@@ -2887,7 +2887,7 @@
         <v>0.9337045189693124</v>
       </c>
       <c r="J4">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>56.71304347826086</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.7561739130434781</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>1.008344800546905</v>
+        <v>0.8877512628960939</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -7008,7 +7008,7 @@
         <v>0.8678818921361856</v>
       </c>
       <c r="J17">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>51.4590747330961</v>
+        <v>0</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="CH17">
-        <v>0.6861209964412812</v>
+        <v>0</v>
       </c>
       <c r="CI17">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="DA17">
-        <v>0.782154618747863</v>
+        <v>0.6817553825041551</v>
       </c>
     </row>
     <row r="18" spans="1:105">
@@ -7959,7 +7959,7 @@
         <v>0.9700467562828755</v>
       </c>
       <c r="J20">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>55.47671840354766</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="CH20">
-        <v>0.7396895787139689</v>
+        <v>0</v>
       </c>
       <c r="CI20">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.6588799222678118</v>
+        <v>0.5583828594571475</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -23175,7 +23175,7 @@
         <v>0.7291880781089415</v>
       </c>
       <c r="J68">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AV68">
-        <v>34.32624113475178</v>
+        <v>0</v>
       </c>
       <c r="AW68">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="CH68">
-        <v>0.4576832151300237</v>
+        <v>0</v>
       </c>
       <c r="CI68">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="DA68">
-        <v>0.8585539096611537</v>
+        <v>0.8130758734854431</v>
       </c>
     </row>
     <row r="69" spans="1:105">
@@ -25711,7 +25711,7 @@
         <v>0.8173929098966027</v>
       </c>
       <c r="J76">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="AV76">
-        <v>25.76271186440678</v>
+        <v>0</v>
       </c>
       <c r="AW76">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="CH76">
-        <v>0.343502824858757</v>
+        <v>0</v>
       </c>
       <c r="CI76">
         <v>0</v>
@@ -25996,7 +25996,7 @@
         <v>0</v>
       </c>
       <c r="DA76">
-        <v>0.6642323929080488</v>
+        <v>0.6367645817492505</v>
       </c>
     </row>
     <row r="77" spans="1:105">
@@ -48852,7 +48852,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -49486,7 +49486,7 @@
         <v>0.003904820012202563</v>
       </c>
       <c r="J151">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>7</v>
@@ -57728,7 +57728,7 @@
         <v>0.6510930132876125</v>
       </c>
       <c r="J177">
-        <v>2787</v>
+        <v>0</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -57842,7 +57842,7 @@
         <v>0</v>
       </c>
       <c r="AV177">
-        <v>57.80159004493603</v>
+        <v>0</v>
       </c>
       <c r="AW177">
         <v>0</v>
@@ -57956,7 +57956,7 @@
         <v>0</v>
       </c>
       <c r="CH177">
-        <v>0.7706878672658138</v>
+        <v>0</v>
       </c>
       <c r="CI177">
         <v>0</v>
@@ -58013,7 +58013,7 @@
         <v>0</v>
       </c>
       <c r="DA177">
-        <v>0.8108398792940064</v>
+        <v>0.3215706232044734</v>
       </c>
     </row>
     <row r="178" spans="1:105">
@@ -60898,7 +60898,7 @@
         <v>0.7870139581256231</v>
       </c>
       <c r="J187">
-        <v>3017</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -61012,7 +61012,7 @@
         <v>0</v>
       </c>
       <c r="AV187">
-        <v>72.90374546919045</v>
+        <v>0</v>
       </c>
       <c r="AW187">
         <v>0</v>
@@ -61126,7 +61126,7 @@
         <v>0</v>
       </c>
       <c r="CH187">
-        <v>0.972049939589206</v>
+        <v>0</v>
       </c>
       <c r="CI187">
         <v>0</v>
@@ -61183,7 +61183,7 @@
         <v>0</v>
       </c>
       <c r="DA187">
-        <v>0.9954710496896453</v>
+        <v>0.6132699412177529</v>
       </c>
     </row>
     <row r="188" spans="1:105">
